--- a/biology/Histoire de la zoologie et de la botanique/Emily_L._Morton/Emily_L._Morton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emily_L._Morton/Emily_L._Morton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emily L. Morton (3 avril 1841 - 8 janvier 1920 (à 78 ans)) est une entomologiste et illustratrice scientifique américaine. Elle est co-autrice à ses débuts de la série The Life-Histories of the New York Slug Caterpillars[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emily L. Morton (3 avril 1841 - 8 janvier 1920 (à 78 ans)) est une entomologiste et illustratrice scientifique américaine. Elle est co-autrice à ses débuts de la série The Life-Histories of the New York Slug Caterpillars.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emily L. Morton naît le 3 avril 1841 à New Windsor, New York. À l'âge de treize ans, elle est tombée sur un livre scientifique sur les insectes avec leurs noms latins et s'intéresse à la collection de livres sur les insectes[2].
-Dans les cercles entomologiques américains, Emily Morton a décrit l'histoire de la vie des lépidoptères en acquérant, élevant et illustrant les étapes de leur vie[1].
-Elle rencontre d'autres collectionneurs par le biais d'articles et d'annonces dans la revue The Canadian Entomologist (en)[2]. En 1893, Emily Morton commence à coopérer avec l'entomologiste Harrison Gray Dyar après qu'ils aient placé des annonces mutuelles pour des échanges de papillons de nuit, y compris des limacodidés dans Entomological News[1].
-Elle a également fourni à un chercheur, Alpheus Spring Packard, PhD, des spécimens rares d'insectes nuisibles aux forêts et aux arbres d'ombrage, tels que Janassa lignicolor, Hyparpax aurora et autres[3].
-Emily Morton a vendu huit spécimens de sa vaste collection de lépidoptères, dans laquelle elle avait hybridé plusieurs formes, à un collectionneur anglais[2].
-On ne sait pas si elle publie les résultats de ses recherches[2], mais Emily Morton devient coautrice au début de la série The Life-Histories of the New York Slug Caterpillars[1](en français, Les Histoires de la vie des chenilles de limaces de New York).
-En 1904, la collection d'insectes d'Emily Morton est divisée entre le Musée américain d'histoire naturelle, la Société d'histoire naturelle de Boston et des collectionneurs privés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emily L. Morton naît le 3 avril 1841 à New Windsor, New York. À l'âge de treize ans, elle est tombée sur un livre scientifique sur les insectes avec leurs noms latins et s'intéresse à la collection de livres sur les insectes.
+Dans les cercles entomologiques américains, Emily Morton a décrit l'histoire de la vie des lépidoptères en acquérant, élevant et illustrant les étapes de leur vie.
+Elle rencontre d'autres collectionneurs par le biais d'articles et d'annonces dans la revue The Canadian Entomologist (en). En 1893, Emily Morton commence à coopérer avec l'entomologiste Harrison Gray Dyar après qu'ils aient placé des annonces mutuelles pour des échanges de papillons de nuit, y compris des limacodidés dans Entomological News.
+Elle a également fourni à un chercheur, Alpheus Spring Packard, PhD, des spécimens rares d'insectes nuisibles aux forêts et aux arbres d'ombrage, tels que Janassa lignicolor, Hyparpax aurora et autres.
+Emily Morton a vendu huit spécimens de sa vaste collection de lépidoptères, dans laquelle elle avait hybridé plusieurs formes, à un collectionneur anglais.
+On ne sait pas si elle publie les résultats de ses recherches, mais Emily Morton devient coautrice au début de la série The Life-Histories of the New York Slug Caterpillars(en français, Les Histoires de la vie des chenilles de limaces de New York).
+En 1904, la collection d'insectes d'Emily Morton est divisée entre le Musée américain d'histoire naturelle, la Société d'histoire naturelle de Boston et des collectionneurs privés.
 Emily L. Morton décède le 8 janvier 1920, à New Windsor.
 </t>
         </is>
